--- a/ExelFile/AutoTesting.xlsx
+++ b/ExelFile/AutoTesting.xlsx
@@ -513,13 +513,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="13.6640625" customWidth="1" style="10" min="2" max="2"/>
     <col width="20.6640625" customWidth="1" style="10" min="4" max="4"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>alr1234</t>
+          <t>txt127</t>
         </is>
       </c>
       <c r="I2" s="5" t="n">
@@ -694,13 +694,167 @@
       </c>
       <c r="P2" s="8" t="inlineStr">
         <is>
-          <t>[!] ADD BLACK CUSTOMER TEST CASE FAIL AT Fill data to add black customer FAIL!</t>
+          <t>1[+] TEST CASE SUCCESSFULLY!</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="43.2" customFormat="1" customHeight="1" s="2">
+      <c r="A3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>rm_1</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="n">
+        <v>123456</v>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>Trần Xuân Tiến</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>0706600157</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>flamingotran1532002@gmail.com</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>Hạn chế cấp tín dụng</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>txt124</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>16/03/2002</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hồ Chí Minh </t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tiền Giang </t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>Trưởng Phòng Kinh Doan</t>
+        </is>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>Không có ghi chú</t>
+        </is>
+      </c>
+      <c r="P3" s="8" t="inlineStr">
+        <is>
+          <t>2[+] TEST CASE SUCCESSFULLY!</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="43.2" customFormat="1" customHeight="1" s="2">
+      <c r="A4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>rm_1</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="n">
+        <v>123456</v>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>Trần Xuân Tiến</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>0706600157</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr">
+        <is>
+          <t>flamingotran1532002@gmail.com</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>Hạn chế cấp tín dụng</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>txt125</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>123</v>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>16/03/2002</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>Không</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hồ Chí Minh </t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tiền Giang </t>
+        </is>
+      </c>
+      <c r="N4" s="5" t="inlineStr">
+        <is>
+          <t>Trưởng Phòng Kinh Doan</t>
+        </is>
+      </c>
+      <c r="O4" s="5" t="inlineStr">
+        <is>
+          <t>Không có ghi chú</t>
+        </is>
+      </c>
+      <c r="P4" s="8" t="inlineStr">
+        <is>
+          <t>3[+] TEST CASE SUCCESSFULLY!</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
